--- a/E-COMMERCE.xlsx
+++ b/E-COMMERCE.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TESTER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58DC0E52-3DA2-4E10-97FA-71F0EFC82B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5377C18B-4E97-48D7-8B05-4219238D9B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{783D7DF8-8EA1-4B19-AE22-F87419EFC4E7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{783D7DF8-8EA1-4B19-AE22-F87419EFC4E7}"/>
   </bookViews>
   <sheets>
     <sheet name="User profile" sheetId="1" r:id="rId1"/>
     <sheet name="Personal Inform - Test Analyst " sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="logbug" sheetId="4" r:id="rId3"/>
+    <sheet name="testplan" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -199,32 +200,12 @@
 Mật khẩu: password1234</t>
   </si>
   <si>
-    <t>1. Navigate to the &lt;User profile&gt; form.
-2. Input a string of 150 characters in the &lt;Họ và tên&gt; field.
-3. Input valid data in other fields.
-4. Click the "Cập nhật" button.</t>
-  </si>
-  <si>
     <t>PI-06</t>
   </si>
   <si>
     <t>Verify user can not update user profile when user input &lt;Họ và tên&gt; with 49 characters</t>
   </si>
   <si>
-    <t>Họ và tên: 151 characters
-Email: testeradmin@gmail.com
-Số điện thoại: 0345678900
-Địa chỉ: 145 Tôn Đức Thắng, Đà Nẵng
-Giới tính: Nữ
-Mật khẩu: password1234</t>
-  </si>
-  <si>
-    <t>1. Navigate to the &lt;User profile&gt; form.
-2. Input a string of 151 characters in the &lt;Họ và tên&gt; field.
-3. Input valid data in other fields.
-4. Click the "Cập nhật" button.</t>
-  </si>
-  <si>
     <t>Failed</t>
   </si>
   <si>
@@ -232,20 +213,6 @@
   </si>
   <si>
     <t>Verify user can  update user profile when user input &lt;Họ và tên&gt; with 50 characters</t>
-  </si>
-  <si>
-    <t>Họ và tên:  7  characters
-Email: testeradmin@gmail.com
-Số điện thoại: 0345678900
-Địa chỉ: 145 Tôn Đức Thắng, Đà Nẵng
-Giới tính: Nữ
-Mật khẩu: password1234</t>
-  </si>
-  <si>
-    <t>1. Navigate to the &lt;User profile&gt; form.
-2. Input "Tester " (7 characters) in the "Họ và tên" field.
-3. Input valid data in other fields.
-4. Click the "Cập nhật" button.</t>
   </si>
   <si>
     <t>- User profile is updated successfully.
@@ -256,20 +223,6 @@
   </si>
   <si>
     <t>Verify user can not update user profile when user input &lt;Họ và tên&gt; with 51 characters</t>
-  </si>
-  <si>
-    <t>Họ và tên: 99 characters
-Email: testeradmin@gmail.com
-Số điện thoại: 0345678900
-Địa chỉ: 145 Tôn Đức Thắng, Đà Nẵng
-Giới tính: Nữ
-Mật khẩu: password1234</t>
-  </si>
-  <si>
-    <t>1. Navigate to the &lt;User profile&gt; form.
-2. Input a string of 99 characters in the "Họ và tên" field.
-3. Input valid data in other fields.
-4. Click the "Cập nhật" button.</t>
   </si>
   <si>
     <t>PI-09</t>
@@ -286,12 +239,6 @@
 Mật khẩu: password1234</t>
   </si>
   <si>
-    <t>1. Navigate to the &lt;User profile&gt; form.
-2. Input a string of 149 characters in the "Họ và tên" field.
-3. Input valid data in other fields.
-4. Click the "Cập nhật" button.</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 - User profile is updated successfully.
 - The message "Bạn đã Update thành công!" is displayed on the screen.</t>
@@ -1282,6 +1229,60 @@
     <t xml:space="preserve">
 1. Select &lt;Thông tin cá nhân&gt;
 2. Select &lt;Thoát&gt; button</t>
+  </si>
+  <si>
+    <t>1. Navigate to the &lt;User profile&gt; form.
+2. Input a string of 7 characters in the &lt;Họ và tên&gt; field.
+3. Input valid data in other fields.
+4. Click the "Cập nhật" button.</t>
+  </si>
+  <si>
+    <t>1. Navigate to the &lt;User profile&gt; form.
+2. Input a string of 49 characters in the &lt;Họ và tên&gt; field.
+3. Input valid data in other fields.
+4. Click the "Cập nhật" button.</t>
+  </si>
+  <si>
+    <t>1. Navigate to the &lt;User profile&gt; form.
+2. Input a string of 50 characters in the &lt;Họ và tên&gt; field.
+3. Input valid data in other fields.
+4. Click the "Cập nhật" button.</t>
+  </si>
+  <si>
+    <t>1. Navigate to the &lt;User profile&gt; form.
+2. Input a string of 51 characters in the &lt;Họ và tên&gt; field.
+3. Input valid data in other fields.
+4. Click the "Cập nhật" button.</t>
+  </si>
+  <si>
+    <t>1. Navigate to the &lt;User profile&gt; form.
+2. Input a string of characters into the &lt;Họ và tên&gt; field.
+3. Input valid data in other fields.
+4. Click the "Cập nhật" button.</t>
+  </si>
+  <si>
+    <t>Họ và tên: 51 characters
+Email: testeradmin@gmail.com
+Số điện thoại: 0345678900
+Địa chỉ: 145 Tôn Đức Thắng, Đà Nẵng
+Giới tính: Nữ
+Mật khẩu: password1234</t>
+  </si>
+  <si>
+    <t>Họ và tên:  50  characters
+Email: testeradmin@gmail.com
+Số điện thoại: 0345678900
+Địa chỉ: 145 Tôn Đức Thắng, Đà Nẵng
+Giới tính: Nữ
+Mật khẩu: password1234</t>
+  </si>
+  <si>
+    <t>Họ và tên:49 characters
+Email: testeradmin@gmail.com
+Số điện thoại: 0345678900
+Địa chỉ: 145 Tôn Đức Thắng, Đà Nẵng
+Giới tính: Nữ
+Mật khẩu: password1234</t>
   </si>
 </sst>
 </file>
@@ -1661,25 +1662,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1696,13 +1678,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1711,17 +1687,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1786,6 +1757,36 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1837,6 +1838,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>570204</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>116631</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>38878</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>90713</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DBC7F47-0445-7CD2-B32E-F8B8A8F891F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="570204" y="660917"/>
+          <a:ext cx="15913878" cy="14851225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2158,8 +2208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5531DD6A-7311-4466-A37F-F9A6C4ABF752}">
   <dimension ref="A1:S908"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScale="97" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="97" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2221,7 +2271,7 @@
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="61" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -2258,7 +2308,7 @@
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="26"/>
+      <c r="B3" s="62"/>
       <c r="C3" s="8" t="s">
         <v>19</v>
       </c>
@@ -2291,7 +2341,7 @@
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="26"/>
+      <c r="B4" s="62"/>
       <c r="C4" s="8" t="s">
         <v>23</v>
       </c>
@@ -2326,7 +2376,7 @@
       <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="26"/>
+      <c r="B5" s="62"/>
       <c r="C5" s="8" t="s">
         <v>28</v>
       </c>
@@ -2361,7 +2411,7 @@
       <c r="A6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="26"/>
+      <c r="B6" s="62"/>
       <c r="C6" s="8" t="s">
         <v>32</v>
       </c>
@@ -2372,7 +2422,7 @@
         <v>33</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>34</v>
+        <v>316</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>26</v>
@@ -2394,26 +2444,26 @@
     </row>
     <row r="7" spans="1:19" ht="104" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="62"/>
+      <c r="C7" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="8" t="s">
-        <v>36</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>37</v>
+        <v>323</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>38</v>
+        <v>317</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>26</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="10"/>
@@ -2428,23 +2478,23 @@
     </row>
     <row r="8" spans="1:19" ht="104" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="26"/>
+        <v>37</v>
+      </c>
+      <c r="B8" s="62"/>
       <c r="C8" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>42</v>
+        <v>322</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>17</v>
@@ -2463,23 +2513,23 @@
     </row>
     <row r="9" spans="1:19" ht="104" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="26"/>
+        <v>40</v>
+      </c>
+      <c r="B9" s="62"/>
       <c r="C9" s="8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>47</v>
+        <v>321</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>17</v>
@@ -2498,23 +2548,23 @@
     </row>
     <row r="10" spans="1:19" ht="104" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="26"/>
+        <v>42</v>
+      </c>
+      <c r="B10" s="62"/>
       <c r="C10" s="8" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>52</v>
+        <v>320</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>17</v>
@@ -2533,17 +2583,17 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="30"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="66"/>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
@@ -2556,18 +2606,18 @@
     </row>
     <row r="12" spans="1:19" ht="39" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="26"/>
+        <v>47</v>
+      </c>
+      <c r="B12" s="62"/>
       <c r="C12" s="4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="G12" s="8" t="e" cm="1">
         <f t="array" ref="G12">-email can be only read</f>
@@ -2590,17 +2640,17 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="30"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="66"/>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
@@ -2613,18 +2663,18 @@
     </row>
     <row r="14" spans="1:19" ht="39" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="26"/>
+        <v>51</v>
+      </c>
+      <c r="B14" s="62"/>
       <c r="C14" s="4" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G14" s="8" t="e" cm="1">
         <f t="array" ref="G14">-phone number can be only read</f>
@@ -2647,17 +2697,17 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="11"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="30"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="66"/>
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
@@ -2670,24 +2720,24 @@
     </row>
     <row r="16" spans="1:19" ht="65.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="26"/>
+        <v>55</v>
+      </c>
+      <c r="B16" s="62"/>
       <c r="C16" s="8" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="13" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="11"/>
@@ -2703,20 +2753,20 @@
     </row>
     <row r="17" spans="1:19" ht="91" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="26"/>
+        <v>59</v>
+      </c>
+      <c r="B17" s="62"/>
       <c r="C17" s="8" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="G17" s="8" t="str">
         <f>G19</f>
@@ -2740,23 +2790,23 @@
     </row>
     <row r="18" spans="1:19" ht="91" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="26"/>
+        <v>62</v>
+      </c>
+      <c r="B18" s="62"/>
       <c r="C18" s="8" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="G18" s="8" t="s">
         <v>206</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>214</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>17</v>
@@ -2775,23 +2825,23 @@
     </row>
     <row r="19" spans="1:19" ht="91" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="26"/>
+        <v>65</v>
+      </c>
+      <c r="B19" s="62"/>
       <c r="C19" s="8" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>17</v>
@@ -2810,23 +2860,23 @@
     </row>
     <row r="20" spans="1:19" ht="91" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="B20" s="26"/>
+        <v>196</v>
+      </c>
+      <c r="B20" s="62"/>
       <c r="C20" s="8" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>17</v>
@@ -2845,26 +2895,26 @@
     </row>
     <row r="21" spans="1:19" ht="91" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" s="26"/>
+        <v>69</v>
+      </c>
+      <c r="B21" s="62"/>
       <c r="C21" s="8" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I21" s="11"/>
       <c r="J21" s="12"/>
@@ -2879,17 +2929,17 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="30"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="66"/>
       <c r="K22" s="12"/>
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
@@ -2902,23 +2952,23 @@
     </row>
     <row r="23" spans="1:19" ht="104" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B23" s="26"/>
+        <v>74</v>
+      </c>
+      <c r="B23" s="62"/>
       <c r="C23" s="8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>17</v>
@@ -2937,23 +2987,23 @@
     </row>
     <row r="24" spans="1:19" ht="104" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B24" s="26"/>
+        <v>80</v>
+      </c>
+      <c r="B24" s="62"/>
       <c r="C24" s="8" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>17</v>
@@ -2972,21 +3022,21 @@
     </row>
     <row r="25" spans="1:19" ht="39" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="B25" s="27"/>
+        <v>207</v>
+      </c>
+      <c r="B25" s="63"/>
       <c r="C25" s="8" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="14" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>17</v>
@@ -3005,19 +3055,19 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="11"/>
-      <c r="B26" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="C26" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="30"/>
+      <c r="B26" s="67" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="64" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="66"/>
       <c r="K26" s="12"/>
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
@@ -3030,26 +3080,26 @@
     </row>
     <row r="27" spans="1:19" ht="65.5" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B27" s="26"/>
+        <v>86</v>
+      </c>
+      <c r="B27" s="62"/>
       <c r="C27" s="8" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I27" s="11"/>
       <c r="J27" s="12"/>
@@ -3064,26 +3114,26 @@
     </row>
     <row r="28" spans="1:19" ht="65.5" x14ac:dyDescent="0.35">
       <c r="A28" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="B28" s="26"/>
+        <v>91</v>
+      </c>
+      <c r="B28" s="62"/>
       <c r="C28" s="8" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I28" s="11"/>
       <c r="J28" s="12"/>
@@ -3098,23 +3148,23 @@
     </row>
     <row r="29" spans="1:19" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="B29" s="26"/>
+        <v>95</v>
+      </c>
+      <c r="B29" s="62"/>
       <c r="C29" s="8" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>17</v>
@@ -3133,26 +3183,26 @@
     </row>
     <row r="30" spans="1:19" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="B30" s="26"/>
+        <v>100</v>
+      </c>
+      <c r="B30" s="62"/>
       <c r="C30" s="8" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I30" s="11"/>
       <c r="J30" s="12"/>
@@ -3167,17 +3217,17 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="11"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="30"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="65"/>
+      <c r="I31" s="65"/>
+      <c r="J31" s="66"/>
       <c r="K31" s="12"/>
       <c r="L31" s="12"/>
       <c r="M31" s="12"/>
@@ -3190,26 +3240,26 @@
     </row>
     <row r="32" spans="1:19" ht="65" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="B32" s="26"/>
+        <v>104</v>
+      </c>
+      <c r="B32" s="62"/>
       <c r="C32" s="8" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I32" s="11"/>
       <c r="J32" s="12"/>
@@ -3224,26 +3274,26 @@
     </row>
     <row r="33" spans="1:19" ht="65.5" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B33" s="26"/>
+        <v>108</v>
+      </c>
+      <c r="B33" s="62"/>
       <c r="C33" s="8" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I33" s="11"/>
       <c r="J33" s="12"/>
@@ -3258,7 +3308,7 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" s="11"/>
-      <c r="B34" s="27"/>
+      <c r="B34" s="63"/>
       <c r="C34" s="8"/>
       <c r="D34" s="5"/>
       <c r="E34" s="8"/>
@@ -3279,23 +3329,23 @@
     </row>
     <row r="35" spans="1:19" ht="52" x14ac:dyDescent="0.35">
       <c r="A35" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="B35" s="21" t="s">
-        <v>121</v>
+        <v>112</v>
+      </c>
+      <c r="B35" s="56" t="s">
+        <v>113</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H35" s="16" t="s">
         <v>17</v>
@@ -3314,23 +3364,23 @@
     </row>
     <row r="36" spans="1:19" ht="26" x14ac:dyDescent="0.35">
       <c r="A36" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="B36" s="22"/>
+        <v>117</v>
+      </c>
+      <c r="B36" s="57"/>
       <c r="C36" s="14" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="H36" s="17" t="s">
         <v>17</v>
@@ -3349,23 +3399,23 @@
     </row>
     <row r="37" spans="1:19" ht="52" x14ac:dyDescent="0.35">
       <c r="A37" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="B37" s="22"/>
+        <v>122</v>
+      </c>
+      <c r="B37" s="57"/>
       <c r="C37" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="D37" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="E37" s="32" t="s">
-        <v>127</v>
+        <v>123</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>119</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="H37" s="17" t="s">
         <v>17</v>
@@ -3384,17 +3434,17 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" s="19"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="23"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="59" t="s">
+        <v>127</v>
+      </c>
+      <c r="D38" s="60"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="60"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="60"/>
+      <c r="I38" s="60"/>
+      <c r="J38" s="58"/>
       <c r="K38" s="12"/>
       <c r="L38" s="12"/>
       <c r="M38" s="12"/>
@@ -3407,21 +3457,21 @@
     </row>
     <row r="39" spans="1:19" ht="52" x14ac:dyDescent="0.35">
       <c r="A39" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="B39" s="22"/>
+        <v>128</v>
+      </c>
+      <c r="B39" s="57"/>
       <c r="C39" s="14" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="14" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="H39" s="17" t="s">
         <v>17</v>
@@ -3440,23 +3490,23 @@
     </row>
     <row r="40" spans="1:19" ht="26" x14ac:dyDescent="0.35">
       <c r="A40" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="B40" s="22"/>
+        <v>132</v>
+      </c>
+      <c r="B40" s="57"/>
       <c r="C40" s="14" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="G40" s="14" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="H40" s="17" t="s">
         <v>17</v>
@@ -3475,23 +3525,23 @@
     </row>
     <row r="41" spans="1:19" ht="52" x14ac:dyDescent="0.35">
       <c r="A41" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="B41" s="22"/>
+        <v>137</v>
+      </c>
+      <c r="B41" s="57"/>
       <c r="C41" s="14" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="G41" s="14" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="H41" s="17" t="s">
         <v>17</v>
@@ -3510,26 +3560,26 @@
     </row>
     <row r="42" spans="1:19" ht="65" x14ac:dyDescent="0.35">
       <c r="A42" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="B42" s="22"/>
+        <v>141</v>
+      </c>
+      <c r="B42" s="57"/>
       <c r="C42" s="14" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="G42" s="14" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="H42" s="17" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I42" s="17"/>
       <c r="J42" s="12"/>
@@ -3544,23 +3594,23 @@
     </row>
     <row r="43" spans="1:19" ht="65" x14ac:dyDescent="0.35">
       <c r="A43" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="B43" s="22"/>
+        <v>146</v>
+      </c>
+      <c r="B43" s="57"/>
       <c r="C43" s="14" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D43" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="G43" s="14" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="H43" s="17" t="s">
         <v>17</v>
@@ -3579,23 +3629,23 @@
     </row>
     <row r="44" spans="1:19" ht="65" x14ac:dyDescent="0.35">
       <c r="A44" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="B44" s="22"/>
+        <v>151</v>
+      </c>
+      <c r="B44" s="57"/>
       <c r="C44" s="14" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D44" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="H44" s="17" t="s">
         <v>17</v>
@@ -3614,26 +3664,26 @@
     </row>
     <row r="45" spans="1:19" ht="65" x14ac:dyDescent="0.35">
       <c r="A45" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="B45" s="22"/>
+        <v>155</v>
+      </c>
+      <c r="B45" s="57"/>
       <c r="C45" s="14" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D45" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="H45" s="17" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I45" s="17"/>
       <c r="J45" s="12"/>
@@ -3648,26 +3698,26 @@
     </row>
     <row r="46" spans="1:19" ht="65" x14ac:dyDescent="0.35">
       <c r="A46" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="B46" s="22"/>
+        <v>159</v>
+      </c>
+      <c r="B46" s="57"/>
       <c r="C46" s="14" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="H46" s="17" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I46" s="17"/>
       <c r="J46" s="12"/>
@@ -3682,26 +3732,26 @@
     </row>
     <row r="47" spans="1:19" ht="65" x14ac:dyDescent="0.35">
       <c r="A47" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="B47" s="22"/>
+        <v>163</v>
+      </c>
+      <c r="B47" s="57"/>
       <c r="C47" s="14" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D47" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F47" s="14" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="H47" s="17" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I47" s="17"/>
       <c r="J47" s="12"/>
@@ -3716,17 +3766,17 @@
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A48" s="19"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="23"/>
+      <c r="B48" s="57"/>
+      <c r="C48" s="59" t="s">
+        <v>167</v>
+      </c>
+      <c r="D48" s="60"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="60"/>
+      <c r="G48" s="60"/>
+      <c r="H48" s="60"/>
+      <c r="I48" s="60"/>
+      <c r="J48" s="58"/>
       <c r="K48" s="12"/>
       <c r="L48" s="12"/>
       <c r="M48" s="12"/>
@@ -3739,21 +3789,21 @@
     </row>
     <row r="49" spans="1:19" ht="52" x14ac:dyDescent="0.35">
       <c r="A49" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="B49" s="22"/>
+        <v>168</v>
+      </c>
+      <c r="B49" s="57"/>
       <c r="C49" s="14" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="D49" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E49" s="14"/>
       <c r="F49" s="14" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G49" s="14" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="H49" s="17" t="s">
         <v>17</v>
@@ -3772,23 +3822,23 @@
     </row>
     <row r="50" spans="1:19" ht="39" x14ac:dyDescent="0.35">
       <c r="A50" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="B50" s="22"/>
+        <v>172</v>
+      </c>
+      <c r="B50" s="57"/>
       <c r="C50" s="14" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D50" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="G50" s="14" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="H50" s="17" t="s">
         <v>17</v>
@@ -3807,23 +3857,23 @@
     </row>
     <row r="51" spans="1:19" ht="52" x14ac:dyDescent="0.35">
       <c r="A51" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="B51" s="22"/>
+        <v>177</v>
+      </c>
+      <c r="B51" s="57"/>
       <c r="C51" s="14" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="G51" s="14" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="H51" s="17" t="s">
         <v>17</v>
@@ -3842,23 +3892,23 @@
     </row>
     <row r="52" spans="1:19" ht="78" x14ac:dyDescent="0.35">
       <c r="A52" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="B52" s="23"/>
-      <c r="C52" s="32" t="s">
-        <v>190</v>
+        <v>181</v>
+      </c>
+      <c r="B52" s="58"/>
+      <c r="C52" s="21" t="s">
+        <v>182</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="F52" s="14" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="G52" s="14" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="H52" s="17" t="s">
         <v>17</v>
@@ -3877,26 +3927,26 @@
     </row>
     <row r="53" spans="1:19" ht="39" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="E53" s="8"/>
       <c r="F53" s="8" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="G53" s="14" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="10"/>
@@ -21905,775 +21955,775 @@
   </sheetPr>
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="A2" zoomScale="79" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="12.6328125" style="33"/>
-    <col min="3" max="3" width="17.6328125" style="33" customWidth="1"/>
-    <col min="4" max="4" width="24.1796875" style="33" customWidth="1"/>
-    <col min="5" max="5" width="13.90625" style="33" customWidth="1"/>
-    <col min="6" max="6" width="16.453125" style="33" customWidth="1"/>
-    <col min="7" max="7" width="16.81640625" style="33" customWidth="1"/>
-    <col min="8" max="8" width="17.1796875" style="33" customWidth="1"/>
-    <col min="9" max="16384" width="12.6328125" style="33"/>
+    <col min="1" max="2" width="12.6328125" style="22"/>
+    <col min="3" max="3" width="17.6328125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="24.1796875" style="22" customWidth="1"/>
+    <col min="5" max="5" width="13.90625" style="22" customWidth="1"/>
+    <col min="6" max="6" width="16.453125" style="22" customWidth="1"/>
+    <col min="7" max="7" width="16.81640625" style="22" customWidth="1"/>
+    <col min="8" max="8" width="17.1796875" style="22" customWidth="1"/>
+    <col min="9" max="16384" width="12.6328125" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+      <c r="A2" s="68" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="71" t="s">
         <v>216</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="D2" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="E2" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="F2" s="28"/>
+      <c r="G2" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+      <c r="A3" s="69"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="F3" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="G3" s="29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+      <c r="A4" s="69"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="D4" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="E4" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="F4" s="28"/>
+      <c r="G4" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+      <c r="A5" s="69"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="28" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="13" x14ac:dyDescent="0.3">
-      <c r="A2" s="38" t="s">
+      <c r="D5" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="F5" s="28"/>
+      <c r="G5" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+      <c r="A6" s="69"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="71" t="s">
         <v>223</v>
       </c>
-      <c r="B2" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="40" t="s">
+      <c r="D6" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="F6" s="28"/>
+      <c r="G6" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+      <c r="A7" s="69"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="G7" s="29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+      <c r="A8" s="69"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="28" t="s">
         <v>224</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D8" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="F8" s="28"/>
+      <c r="G8" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+      <c r="A9" s="69"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="71" t="s">
         <v>225</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="D9" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="F9" s="28"/>
+      <c r="G9" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+      <c r="A10" s="69"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="28" t="s">
         <v>226</v>
       </c>
-      <c r="F2" s="41"/>
-      <c r="G2" s="42">
+      <c r="E10" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="F10" s="28"/>
+      <c r="G10" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+      <c r="A11" s="69"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="69"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="F12" s="28"/>
+      <c r="G12" s="29"/>
+    </row>
+    <row r="13" spans="1:7" ht="13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="69"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="F13" s="28"/>
+      <c r="G13" s="29"/>
+    </row>
+    <row r="14" spans="1:7" ht="13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="69"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="F14" s="28"/>
+      <c r="G14" s="29"/>
+    </row>
+    <row r="15" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+      <c r="A15" s="69"/>
+      <c r="B15" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="71" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="F15" s="28"/>
+      <c r="G15" s="29">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="13" x14ac:dyDescent="0.3">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="41" t="s">
-        <v>247</v>
-      </c>
-      <c r="E3" s="41" t="s">
+    <row r="16" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="69"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="31" t="s">
+        <v>229</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="F16" s="28"/>
+      <c r="G16" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+      <c r="A17" s="69"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="G17" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="69"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="F18" s="28"/>
+      <c r="G18" s="29"/>
+    </row>
+    <row r="19" spans="1:7" ht="13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="69"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="F19" s="28"/>
+      <c r="G19" s="29"/>
+    </row>
+    <row r="20" spans="1:7" ht="13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="69"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="F20" s="28"/>
+      <c r="G20" s="29"/>
+    </row>
+    <row r="21" spans="1:7" ht="13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="69"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="F21" s="28"/>
+      <c r="G21" s="29"/>
+    </row>
+    <row r="22" spans="1:7" ht="13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="69"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="F22" s="28"/>
+      <c r="G22" s="29"/>
+    </row>
+    <row r="23" spans="1:7" ht="13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="69"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="F23" s="28"/>
+      <c r="G23" s="29"/>
+    </row>
+    <row r="24" spans="1:7" ht="13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="69"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="F24" s="28"/>
+      <c r="G24" s="29"/>
+    </row>
+    <row r="25" spans="1:7" ht="13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="69"/>
+      <c r="B25" s="69"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="F25" s="28"/>
+      <c r="G25" s="29"/>
+    </row>
+    <row r="26" spans="1:7" ht="13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="69"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="F26" s="28"/>
+      <c r="G26" s="29"/>
+    </row>
+    <row r="27" spans="1:7" ht="13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="69"/>
+      <c r="B27" s="69"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="F27" s="28"/>
+      <c r="G27" s="29"/>
+    </row>
+    <row r="28" spans="1:7" ht="13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="69"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="F28" s="28"/>
+      <c r="G28" s="29"/>
+    </row>
+    <row r="29" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+      <c r="A29" s="69"/>
+      <c r="B29" s="68" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" s="71" t="s">
+        <v>231</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="F29" s="28"/>
+      <c r="G29" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+      <c r="A30" s="69"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="69"/>
+      <c r="D30" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="F30" s="28"/>
+      <c r="G30" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+      <c r="A31" s="69"/>
+      <c r="B31" s="69"/>
+      <c r="C31" s="70"/>
+      <c r="D31" s="28" t="s">
         <v>226</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="E31" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="F31" s="28"/>
+      <c r="G31" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+      <c r="A32" s="69"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="71" t="s">
+        <v>232</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="F32" s="28"/>
+      <c r="G32" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+      <c r="A33" s="69"/>
+      <c r="B33" s="69"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="28" t="s">
         <v>227</v>
       </c>
-      <c r="G3" s="42">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.3">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="41" t="s">
-        <v>228</v>
-      </c>
-      <c r="D4" s="41" t="s">
-        <v>229</v>
-      </c>
-      <c r="E4" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="F4" s="41"/>
-      <c r="G4" s="42">
+      <c r="E33" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="F33" s="28"/>
+      <c r="G33" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="13" x14ac:dyDescent="0.3">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="41" t="s">
-        <v>230</v>
-      </c>
-      <c r="D5" s="41" t="s">
-        <v>229</v>
-      </c>
-      <c r="E5" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="F5" s="41"/>
-      <c r="G5" s="42">
+    <row r="34" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+      <c r="A34" s="69"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="F34" s="28"/>
+      <c r="G34" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13" x14ac:dyDescent="0.3">
-      <c r="A6" s="43"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="40" t="s">
-        <v>231</v>
-      </c>
-      <c r="D6" s="41" t="s">
-        <v>225</v>
-      </c>
-      <c r="E6" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="F6" s="41"/>
-      <c r="G6" s="42">
+    <row r="35" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+      <c r="A35" s="69"/>
+      <c r="B35" s="69"/>
+      <c r="C35" s="69"/>
+      <c r="D35" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="E35" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="F35" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="G35" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+      <c r="A36" s="69"/>
+      <c r="B36" s="69"/>
+      <c r="C36" s="70"/>
+      <c r="D36" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="E36" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="F36" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="G36" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+      <c r="A37" s="69"/>
+      <c r="B37" s="69"/>
+      <c r="C37" s="71" t="s">
+        <v>237</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="E37" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="F37" s="28"/>
+      <c r="G37" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+      <c r="A38" s="69"/>
+      <c r="B38" s="69"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="E38" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="F38" s="28"/>
+      <c r="G38" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="13" x14ac:dyDescent="0.3">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="41" t="s">
-        <v>248</v>
-      </c>
-      <c r="E7" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="F7" s="41" t="s">
-        <v>227</v>
-      </c>
-      <c r="G7" s="42">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="13" x14ac:dyDescent="0.3">
-      <c r="A8" s="43"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="41" t="s">
-        <v>232</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>225</v>
-      </c>
-      <c r="E8" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="F8" s="41"/>
-      <c r="G8" s="42">
+    <row r="39" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+      <c r="A39" s="69"/>
+      <c r="B39" s="69"/>
+      <c r="C39" s="70"/>
+      <c r="D39" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="E39" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="F39" s="28"/>
+      <c r="G39" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13" x14ac:dyDescent="0.3">
-      <c r="A9" s="43"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="40" t="s">
-        <v>233</v>
-      </c>
-      <c r="D9" s="41" t="s">
-        <v>225</v>
-      </c>
-      <c r="E9" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="F9" s="41"/>
-      <c r="G9" s="42">
+    <row r="40" spans="1:7" ht="13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="69"/>
+      <c r="B40" s="70"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="F40" s="28"/>
+      <c r="G40" s="29"/>
+    </row>
+    <row r="41" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A41" s="70"/>
+      <c r="B41" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="C41" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="F41" s="28"/>
+      <c r="G41" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="13" x14ac:dyDescent="0.3">
-      <c r="A10" s="43"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="41" t="s">
-        <v>234</v>
-      </c>
-      <c r="E10" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="F10" s="41"/>
-      <c r="G10" s="42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="13" x14ac:dyDescent="0.3">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="41" t="s">
-        <v>235</v>
-      </c>
-      <c r="E11" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="F11" s="41"/>
-      <c r="G11" s="42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="13" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="43"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="F12" s="41"/>
-      <c r="G12" s="42"/>
-    </row>
-    <row r="13" spans="1:7" ht="13" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="43"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="F13" s="41"/>
-      <c r="G13" s="42"/>
-    </row>
-    <row r="14" spans="1:7" ht="13" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="43"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="F14" s="41"/>
-      <c r="G14" s="42"/>
-    </row>
-    <row r="15" spans="1:7" ht="13" x14ac:dyDescent="0.3">
-      <c r="A15" s="43"/>
-      <c r="B15" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="D15" s="41" t="s">
-        <v>236</v>
-      </c>
-      <c r="E15" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="F15" s="41"/>
-      <c r="G15" s="42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="43"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="46" t="s">
-        <v>237</v>
-      </c>
-      <c r="E16" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="F16" s="41"/>
-      <c r="G16" s="42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="13" x14ac:dyDescent="0.3">
-      <c r="A17" s="43"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="41" t="s">
-        <v>111</v>
-      </c>
-      <c r="D17" s="41" t="s">
-        <v>238</v>
-      </c>
-      <c r="E17" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="F17" s="41" t="s">
-        <v>227</v>
-      </c>
-      <c r="G17" s="42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="13" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="43"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="F18" s="41"/>
-      <c r="G18" s="42"/>
-    </row>
-    <row r="19" spans="1:7" ht="13" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="43"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="F19" s="41"/>
-      <c r="G19" s="42"/>
-    </row>
-    <row r="20" spans="1:7" ht="13" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="43"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="F20" s="41"/>
-      <c r="G20" s="42"/>
-    </row>
-    <row r="21" spans="1:7" ht="13" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="43"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="F21" s="41"/>
-      <c r="G21" s="42"/>
-    </row>
-    <row r="22" spans="1:7" ht="13" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="43"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="F22" s="41"/>
-      <c r="G22" s="42"/>
-    </row>
-    <row r="23" spans="1:7" ht="13" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="43"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="F23" s="41"/>
-      <c r="G23" s="42"/>
-    </row>
-    <row r="24" spans="1:7" ht="13" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="43"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="F24" s="41"/>
-      <c r="G24" s="42"/>
-    </row>
-    <row r="25" spans="1:7" ht="13" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="43"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="F25" s="41"/>
-      <c r="G25" s="42"/>
-    </row>
-    <row r="26" spans="1:7" ht="13" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="43"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="F26" s="41"/>
-      <c r="G26" s="42"/>
-    </row>
-    <row r="27" spans="1:7" ht="13" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="43"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="F27" s="41"/>
-      <c r="G27" s="42"/>
-    </row>
-    <row r="28" spans="1:7" ht="13" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="43"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="F28" s="41"/>
-      <c r="G28" s="42"/>
-    </row>
-    <row r="29" spans="1:7" ht="13" x14ac:dyDescent="0.3">
-      <c r="A29" s="43"/>
-      <c r="B29" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="C29" s="40" t="s">
-        <v>239</v>
-      </c>
-      <c r="D29" s="41" t="s">
-        <v>225</v>
-      </c>
-      <c r="E29" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="F29" s="41"/>
-      <c r="G29" s="42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="13" x14ac:dyDescent="0.3">
-      <c r="A30" s="43"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="41" t="s">
-        <v>235</v>
-      </c>
-      <c r="E30" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="F30" s="41"/>
-      <c r="G30" s="42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="13" x14ac:dyDescent="0.3">
-      <c r="A31" s="43"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="41" t="s">
-        <v>234</v>
-      </c>
-      <c r="E31" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="F31" s="41"/>
-      <c r="G31" s="42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="13" x14ac:dyDescent="0.3">
-      <c r="A32" s="43"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="40" t="s">
-        <v>240</v>
-      </c>
-      <c r="D32" s="41" t="s">
-        <v>225</v>
-      </c>
-      <c r="E32" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="F32" s="41"/>
-      <c r="G32" s="42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="13" x14ac:dyDescent="0.3">
-      <c r="A33" s="43"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="41" t="s">
-        <v>235</v>
-      </c>
-      <c r="E33" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="F33" s="41"/>
-      <c r="G33" s="42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="13" x14ac:dyDescent="0.3">
-      <c r="A34" s="43"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="41" t="s">
-        <v>241</v>
-      </c>
-      <c r="E34" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="F34" s="41"/>
-      <c r="G34" s="42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="13" x14ac:dyDescent="0.3">
-      <c r="A35" s="43"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="47" t="s">
-        <v>242</v>
-      </c>
-      <c r="E35" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="F35" s="41" t="s">
-        <v>227</v>
-      </c>
-      <c r="G35" s="42">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="13" x14ac:dyDescent="0.3">
-      <c r="A36" s="43"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="47" t="s">
-        <v>243</v>
-      </c>
-      <c r="E36" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="F36" s="41" t="s">
-        <v>244</v>
-      </c>
-      <c r="G36" s="42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="13" x14ac:dyDescent="0.3">
-      <c r="A37" s="43"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="40" t="s">
-        <v>245</v>
-      </c>
-      <c r="D37" s="41" t="s">
-        <v>225</v>
-      </c>
-      <c r="E37" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="F37" s="41"/>
-      <c r="G37" s="42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="13" x14ac:dyDescent="0.3">
-      <c r="A38" s="43"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="41" t="s">
-        <v>235</v>
-      </c>
-      <c r="E38" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="F38" s="41"/>
-      <c r="G38" s="42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="13" x14ac:dyDescent="0.3">
-      <c r="A39" s="43"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="45" t="s">
-        <v>246</v>
-      </c>
-      <c r="E39" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="F39" s="41"/>
-      <c r="G39" s="42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="13" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="43"/>
-      <c r="B40" s="44"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="F40" s="41"/>
-      <c r="G40" s="42"/>
-    </row>
-    <row r="41" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A41" s="44"/>
-      <c r="B41" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="C41" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="F41" s="41"/>
-      <c r="G41" s="42">
-        <v>1</v>
-      </c>
-    </row>
     <row r="42" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A42" s="36"/>
-      <c r="B42" s="36"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="34"/>
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="23"/>
     </row>
     <row r="43" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A43" s="36"/>
-      <c r="B43" s="36"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="34"/>
+      <c r="A43" s="25"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="23"/>
     </row>
     <row r="44" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A44" s="36"/>
-      <c r="B44" s="36"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="34"/>
+      <c r="A44" s="25"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="23"/>
     </row>
     <row r="45" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A45" s="36"/>
-      <c r="B45" s="36"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="34"/>
+      <c r="A45" s="25"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="23"/>
     </row>
     <row r="46" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A46" s="36"/>
-      <c r="B46" s="36"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="34"/>
+      <c r="A46" s="25"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="23"/>
     </row>
     <row r="47" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A47" s="36"/>
-      <c r="B47" s="36"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="35"/>
-      <c r="G47" s="34"/>
+      <c r="A47" s="25"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="23"/>
     </row>
     <row r="48" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A48" s="36"/>
-      <c r="B48" s="36"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="34"/>
+      <c r="A48" s="25"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="23"/>
     </row>
     <row r="49" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A49" s="36"/>
-      <c r="B49" s="36"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="34"/>
+      <c r="A49" s="25"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="23"/>
     </row>
     <row r="50" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A50" s="36"/>
-      <c r="B50" s="36"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="34"/>
+      <c r="A50" s="25"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="23"/>
     </row>
     <row r="51" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A51" s="36"/>
-      <c r="B51" s="36"/>
-      <c r="C51" s="35"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="34"/>
+      <c r="A51" s="25"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="23"/>
     </row>
     <row r="52" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A52" s="36"/>
-      <c r="B52" s="36"/>
-      <c r="C52" s="35"/>
-      <c r="D52" s="35"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="35"/>
-      <c r="G52" s="34"/>
+      <c r="A52" s="25"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="23"/>
     </row>
     <row r="53" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A53" s="36"/>
-      <c r="B53" s="36"/>
-      <c r="C53" s="35"/>
-      <c r="D53" s="35"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="35"/>
-      <c r="G53" s="34"/>
+      <c r="A53" s="25"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="23"/>
     </row>
     <row r="54" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A54" s="36"/>
-      <c r="B54" s="36"/>
-      <c r="C54" s="35"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="35"/>
-      <c r="G54" s="34"/>
+      <c r="A54" s="25"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="23"/>
     </row>
     <row r="55" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A55" s="36"/>
-      <c r="B55" s="36"/>
-      <c r="C55" s="35"/>
-      <c r="D55" s="35"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="35"/>
-      <c r="G55" s="34"/>
+      <c r="A55" s="25"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="23"/>
     </row>
     <row r="56" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A56" s="36"/>
-      <c r="B56" s="36"/>
-      <c r="C56" s="35"/>
-      <c r="D56" s="35"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="35"/>
-      <c r="G56" s="34"/>
+      <c r="A56" s="25"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B29:B40"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C32:C36"/>
-    <mergeCell ref="C37:C39"/>
     <mergeCell ref="A2:A41"/>
     <mergeCell ref="B2:B14"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="B15:B28"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B29:B40"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="C37:C39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22683,8 +22733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A5D3B9-8762-496C-AD9E-F1679032940E}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView zoomScale="60" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22700,381 +22750,381 @@
     <col min="9" max="9" width="54.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="E1" s="46" t="s">
+        <v>245</v>
+      </c>
+      <c r="F1" s="46" t="s">
+        <v>246</v>
+      </c>
+      <c r="G1" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="46" t="s">
+        <v>247</v>
+      </c>
+      <c r="I1" s="46" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="118.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="33" t="s">
         <v>249</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B2" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="35" t="s">
         <v>250</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="D2" s="35" t="s">
         <v>251</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="E2" s="36" t="s">
         <v>252</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="F2" s="35" t="s">
         <v>253</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="G2" s="48" t="s">
         <v>254</v>
       </c>
-      <c r="G1" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="62" t="s">
+      <c r="H2" s="49" t="s">
         <v>255</v>
       </c>
-      <c r="I1" s="62" t="s">
+      <c r="I2" s="50" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="118.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="49" t="s">
+    <row r="3" spans="1:9" ht="123.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="37" t="s">
         <v>257</v>
       </c>
-      <c r="B2" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="51" t="s">
+      <c r="B3" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="35" t="s">
         <v>258</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D3" s="35" t="s">
         <v>259</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E3" s="36" t="s">
         <v>260</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F3" s="35" t="s">
         <v>261</v>
       </c>
-      <c r="G2" s="64" t="s">
+      <c r="G3" s="48" t="s">
         <v>262</v>
       </c>
-      <c r="H2" s="65" t="s">
+      <c r="H3" s="49" t="s">
+        <v>255</v>
+      </c>
+      <c r="I3" s="49" t="s">
         <v>263</v>
       </c>
-      <c r="I2" s="66" t="s">
+    </row>
+    <row r="4" spans="1:9" ht="95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="33" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="123.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="53" t="s">
+      <c r="B4" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="35" t="s">
         <v>265</v>
       </c>
-      <c r="B3" s="54" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="51" t="s">
+      <c r="D4" s="35" t="s">
         <v>266</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="E4" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="35" t="s">
         <v>267</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="G4" s="48" t="s">
         <v>268</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="H4" s="50" t="s">
         <v>269</v>
       </c>
-      <c r="G3" s="64" t="s">
+      <c r="I4" s="50" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="115.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="37" t="s">
         <v>270</v>
       </c>
-      <c r="H3" s="65" t="s">
+      <c r="B5" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>271</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>274</v>
+      </c>
+      <c r="G5" s="51" t="s">
+        <v>275</v>
+      </c>
+      <c r="H5" s="50" t="s">
+        <v>269</v>
+      </c>
+      <c r="I5" s="50" t="s">
         <v>263</v>
       </c>
-      <c r="I3" s="65" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="49" t="s">
-        <v>272</v>
-      </c>
-      <c r="B4" s="55" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="51" t="s">
+    </row>
+    <row r="6" spans="1:9" ht="77.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="33" t="s">
+        <v>276</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>277</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>278</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>279</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>280</v>
+      </c>
+      <c r="G6" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="H6" s="50" t="s">
+        <v>269</v>
+      </c>
+      <c r="I6" s="50" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="71" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="33" t="s">
+        <v>281</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>282</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>283</v>
+      </c>
+      <c r="E7" s="35" t="s">
         <v>273</v>
       </c>
-      <c r="D4" s="51" t="s">
-        <v>274</v>
-      </c>
-      <c r="E4" s="52" t="s">
-        <v>97</v>
-      </c>
-      <c r="F4" s="51" t="s">
-        <v>275</v>
-      </c>
-      <c r="G4" s="64" t="s">
-        <v>276</v>
-      </c>
-      <c r="H4" s="66" t="s">
-        <v>277</v>
-      </c>
-      <c r="I4" s="66" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="115.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="53" t="s">
-        <v>278</v>
-      </c>
-      <c r="B5" s="55" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="51" t="s">
-        <v>279</v>
-      </c>
-      <c r="D5" s="51" t="s">
-        <v>280</v>
-      </c>
-      <c r="E5" s="52" t="s">
-        <v>281</v>
-      </c>
-      <c r="F5" s="51" t="s">
-        <v>282</v>
-      </c>
-      <c r="G5" s="67" t="s">
-        <v>283</v>
-      </c>
-      <c r="H5" s="66" t="s">
-        <v>277</v>
-      </c>
-      <c r="I5" s="66" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="77.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="49" t="s">
+      <c r="F7" s="40" t="s">
         <v>284</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="G7" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="H7" s="50" t="s">
+        <v>269</v>
+      </c>
+      <c r="I7" s="50" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="66.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="B8" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="51" t="s">
-        <v>285</v>
-      </c>
-      <c r="D6" s="51" t="s">
-        <v>286</v>
-      </c>
-      <c r="E6" s="51" t="s">
+      <c r="C8" s="35" t="s">
         <v>287</v>
       </c>
-      <c r="F6" s="56" t="s">
+      <c r="D8" s="35" t="s">
         <v>288</v>
       </c>
-      <c r="G6" s="68" t="s">
-        <v>107</v>
-      </c>
-      <c r="H6" s="66" t="s">
-        <v>277</v>
-      </c>
-      <c r="I6" s="66" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="71" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="49" t="s">
+      <c r="E8" s="35" t="s">
         <v>289</v>
       </c>
-      <c r="B7" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="C7" s="51" t="s">
+      <c r="F8" s="40" t="s">
         <v>290</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="G8" s="52" t="s">
         <v>291</v>
       </c>
-      <c r="E7" s="51" t="s">
-        <v>281</v>
-      </c>
-      <c r="F7" s="56" t="s">
+      <c r="H8" s="50" t="s">
+        <v>269</v>
+      </c>
+      <c r="I8" s="50" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="108" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="33" t="s">
         <v>292</v>
       </c>
-      <c r="G7" s="68" t="s">
+      <c r="B9" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9" s="35" t="s">
         <v>293</v>
       </c>
-      <c r="H7" s="66" t="s">
-        <v>277</v>
-      </c>
-      <c r="I7" s="66" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="66.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="49" t="s">
+      <c r="D9" s="35" t="s">
+        <v>293</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="F9" s="40" t="s">
         <v>294</v>
       </c>
-      <c r="B8" s="50" t="s">
-        <v>116</v>
-      </c>
-      <c r="C8" s="51" t="s">
+      <c r="G9" s="52" t="s">
         <v>295</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="H9" s="50" t="s">
+        <v>255</v>
+      </c>
+      <c r="I9" s="50" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="101" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="33" t="s">
         <v>296</v>
       </c>
-      <c r="E8" s="51" t="s">
+      <c r="B10" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" s="35" t="s">
         <v>297</v>
       </c>
-      <c r="F8" s="56" t="s">
+      <c r="D10" s="35" t="s">
         <v>298</v>
       </c>
-      <c r="G8" s="68" t="s">
+      <c r="E10" s="35" t="s">
         <v>299</v>
       </c>
-      <c r="H8" s="66" t="s">
-        <v>277</v>
-      </c>
-      <c r="I8" s="66" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="108" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="49" t="s">
+      <c r="F10" s="40" t="s">
         <v>300</v>
       </c>
-      <c r="B9" s="50" t="s">
-        <v>149</v>
-      </c>
-      <c r="C9" s="51" t="s">
+      <c r="G10" s="52" t="s">
         <v>301</v>
       </c>
-      <c r="D9" s="51" t="s">
-        <v>301</v>
-      </c>
-      <c r="E9" s="51" t="s">
-        <v>152</v>
-      </c>
-      <c r="F9" s="56" t="s">
+      <c r="H10" s="50" t="s">
+        <v>255</v>
+      </c>
+      <c r="I10" s="50" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="33" t="s">
         <v>302</v>
       </c>
-      <c r="G9" s="68" t="s">
+      <c r="B11" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" s="35" t="s">
         <v>303</v>
       </c>
-      <c r="H9" s="66" t="s">
+      <c r="D11" s="42" t="s">
+        <v>304</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>305</v>
+      </c>
+      <c r="F11" s="42" t="s">
+        <v>306</v>
+      </c>
+      <c r="G11" s="53" t="s">
+        <v>307</v>
+      </c>
+      <c r="H11" s="50" t="s">
+        <v>255</v>
+      </c>
+      <c r="I11" s="50" t="s">
         <v>263</v>
       </c>
-      <c r="I9" s="66" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="101" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="49" t="s">
-        <v>304</v>
-      </c>
-      <c r="B10" s="50" t="s">
+    </row>
+    <row r="12" spans="1:9" ht="98.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="43" t="s">
+        <v>308</v>
+      </c>
+      <c r="B12" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="C10" s="51" t="s">
-        <v>305</v>
-      </c>
-      <c r="D10" s="51" t="s">
-        <v>306</v>
-      </c>
-      <c r="E10" s="51" t="s">
-        <v>307</v>
-      </c>
-      <c r="F10" s="56" t="s">
-        <v>308</v>
-      </c>
-      <c r="G10" s="68" t="s">
+      <c r="C12" s="42" t="s">
         <v>309</v>
       </c>
-      <c r="H10" s="66" t="s">
+      <c r="D12" s="42" t="s">
+        <v>310</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="F12" s="42" t="s">
+        <v>311</v>
+      </c>
+      <c r="G12" s="54" t="s">
+        <v>145</v>
+      </c>
+      <c r="H12" s="55" t="s">
+        <v>255</v>
+      </c>
+      <c r="I12" s="55" t="s">
         <v>263</v>
       </c>
-      <c r="I10" s="66" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="49" t="s">
-        <v>310</v>
-      </c>
-      <c r="B11" s="57" t="s">
-        <v>167</v>
-      </c>
-      <c r="C11" s="51" t="s">
-        <v>311</v>
-      </c>
-      <c r="D11" s="58" t="s">
+    </row>
+    <row r="13" spans="1:9" ht="68" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="33" t="s">
         <v>312</v>
       </c>
-      <c r="E11" s="51" t="s">
+      <c r="B13" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="C13" s="35" t="s">
         <v>313</v>
       </c>
-      <c r="F11" s="58" t="s">
+      <c r="D13" s="44" t="s">
         <v>314</v>
       </c>
-      <c r="G11" s="69" t="s">
+      <c r="E13" s="35" t="s">
         <v>315</v>
       </c>
-      <c r="H11" s="66" t="s">
-        <v>263</v>
-      </c>
-      <c r="I11" s="66" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="98.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="59" t="s">
-        <v>316</v>
-      </c>
-      <c r="B12" s="57" t="s">
-        <v>171</v>
-      </c>
-      <c r="C12" s="58" t="s">
-        <v>317</v>
-      </c>
-      <c r="D12" s="58" t="s">
-        <v>318</v>
-      </c>
-      <c r="E12" s="58" t="s">
-        <v>174</v>
-      </c>
-      <c r="F12" s="58" t="s">
-        <v>319</v>
-      </c>
-      <c r="G12" s="70" t="s">
-        <v>153</v>
-      </c>
-      <c r="H12" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="I12" s="71" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="68" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="49" t="s">
-        <v>320</v>
-      </c>
-      <c r="B13" s="54" t="s">
-        <v>195</v>
-      </c>
-      <c r="C13" s="51" t="s">
-        <v>321</v>
-      </c>
-      <c r="D13" s="60" t="s">
-        <v>322</v>
-      </c>
-      <c r="E13" s="51" t="s">
-        <v>323</v>
-      </c>
-      <c r="F13" s="56" t="s">
-        <v>321</v>
-      </c>
-      <c r="G13" s="68" t="s">
-        <v>200</v>
-      </c>
-      <c r="H13" s="66" t="s">
-        <v>277</v>
-      </c>
-      <c r="I13" s="66" t="s">
-        <v>264</v>
+      <c r="F13" s="40" t="s">
+        <v>313</v>
+      </c>
+      <c r="G13" s="52" t="s">
+        <v>192</v>
+      </c>
+      <c r="H13" s="50" t="s">
+        <v>269</v>
+      </c>
+      <c r="I13" s="50" t="s">
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -23088,4 +23138,19 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05A09ADF-4828-44AB-8C82-668E8BA2D3BC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="35" workbookViewId="0">
+      <selection activeCell="AI23" sqref="AI23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>